--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630200.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521E6FB1-8B41-4C31-894A-4B1EC0F52455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC21231-F7C4-4AE6-B6D3-2EEAA18F7153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T073432.187" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063456.058" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
   <si>
     <t>Do Ty</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>MAKAN LEMBUR TK 09-02 SD 12-02</t>
+  </si>
+  <si>
+    <t>MAKAN LEMBUR TK MAJA</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1096,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1931,68 +1934,336 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>24002596</v>
+      </c>
+      <c r="D7">
+        <v>1204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45344</v>
+      </c>
       <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>17.09</v>
+      </c>
+      <c r="H7">
+        <v>17.09</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2">
+        <v>270000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>270000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>15803</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>2105146</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7">
+        <v>57341543</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7">
+        <v>1204</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR7" t="s">
         <v>74</v>
       </c>
-      <c r="G7">
-        <v>126.43</v>
-      </c>
-      <c r="H7">
-        <v>126.43</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1998000</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1998000</v>
-      </c>
-      <c r="AG7">
-        <v>5</v>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7">
+        <v>24001151</v>
+      </c>
+      <c r="AY7">
+        <v>630200</v>
+      </c>
+      <c r="AZ7">
+        <v>1204.6302000000001</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24002600</v>
+      </c>
+      <c r="D8">
+        <v>1204</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45344</v>
+      </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>126.43</v>
+        <v>17.09</v>
       </c>
       <c r="H8">
-        <v>126.43</v>
+        <v>17.09</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="2">
-        <v>1998000</v>
+        <v>270000</v>
       </c>
       <c r="N8" s="2">
-        <v>1998000</v>
+        <v>270000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2105187</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
       </c>
       <c r="AG8">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>57341527</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP8">
+        <v>1204</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8">
+        <v>24001152</v>
+      </c>
+      <c r="AY8">
+        <v>630200</v>
+      </c>
+      <c r="AZ8">
+        <v>1204.6302000000001</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>126.43</v>
+        <v>160.61000000000001</v>
       </c>
       <c r="H9">
-        <v>126.43</v>
+        <v>160.61000000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>1998000</v>
+        <v>2538000</v>
       </c>
       <c r="N9" s="2">
-        <v>1998000</v>
+        <v>2538000</v>
       </c>
       <c r="AG9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="H10">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2538000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2538000</v>
+      </c>
+      <c r="AG10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>77</v>
+      </c>
+      <c r="G11">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="H11">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2538000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2538000</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630200.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC21231-F7C4-4AE6-B6D3-2EEAA18F7153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7BACCE-784C-45CC-8646-BF7D26FAD01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063456.058" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063654.154" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>Do Ty</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t>MAKAN LEMBUR TK MAJA</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>BANK JOURNAL ENTRY</t>
+  </si>
+  <si>
+    <t>SALARIES 2024</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>RPA2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1099,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2202,40 +2220,145 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>24001242</v>
+      </c>
+      <c r="D9">
+        <v>1201</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45350</v>
+      </c>
       <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>160.61000000000001</v>
-      </c>
-      <c r="H9">
-        <v>160.61000000000001</v>
+        <v>77</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2917.67</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2917.67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
       <c r="L9" s="2">
-        <v>2538000</v>
+        <v>46108000</v>
       </c>
       <c r="N9" s="2">
-        <v>2538000</v>
-      </c>
-      <c r="AG9">
-        <v>7</v>
+        <v>46108000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9">
+        <v>2105817</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP9">
+        <v>1204</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY9">
+        <v>630200</v>
+      </c>
+      <c r="AZ9">
+        <v>1204.6302000000001</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10">
-        <v>160.61000000000001</v>
-      </c>
-      <c r="H10">
-        <v>160.61000000000001</v>
+        <v>81</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3078.28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3078.28</v>
       </c>
       <c r="L10" s="2">
-        <v>2538000</v>
+        <v>48646000</v>
       </c>
       <c r="N10" s="2">
-        <v>2538000</v>
+        <v>48646000</v>
       </c>
       <c r="AG10">
         <v>7</v>
@@ -2243,19 +2366,19 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11">
-        <v>160.61000000000001</v>
-      </c>
-      <c r="H11">
-        <v>160.61000000000001</v>
+        <v>82</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3078.28</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3078.28</v>
       </c>
       <c r="L11" s="2">
-        <v>2538000</v>
+        <v>48646000</v>
       </c>
       <c r="N11" s="2">
-        <v>2538000</v>
+        <v>48646000</v>
       </c>
       <c r="AG11">
         <v>7</v>
@@ -2263,7 +2386,27 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3078.28</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3078.28</v>
+      </c>
+      <c r="L12" s="2">
+        <v>48646000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>48646000</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
